--- a/docs/kingstonFoodDeals.xlsx
+++ b/docs/kingstonFoodDeals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisc/projects/queenSDev/deal_finder/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFCE43-A6B0-1F44-A6BB-FB453E89B5D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB1F089-56A9-2841-8635-0055896D34E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24080" windowHeight="14200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Kingston Food Deals</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>student, food, lunch, dinner</t>
+  </si>
+  <si>
+    <t>ITea</t>
+  </si>
+  <si>
+    <t>Dairy queen</t>
   </si>
 </sst>
 </file>
@@ -265,9 +271,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,156 +645,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
